--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3785640.308821701</v>
+        <v>3783752.727305299</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7934495.553440501</v>
+        <v>7934495.5534405</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>112.3932904856839</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9971593390836</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>129.0246247964033</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>70.03418953493001</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>273.0065037122677</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>49.82207779831584</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>55.71969997626004</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>5.340253406636043</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>169.6822018002577</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.90187484148903</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560523</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>33.35146980185819</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1585,7 +1585,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>136.4187470469951</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>237.6821551249383</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>113.9765264254023</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,19 +2056,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>140.0424879565122</v>
       </c>
     </row>
     <row r="20">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>58.40168825977452</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>89.15058872626261</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>183.1796758466998</v>
+        <v>8.525532102719872</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>104.3370797092943</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0205566759045</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>54.79086154001025</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180122</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897916</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571502</v>
+        <v>46.15337586178587</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523577</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.934386695271</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463131</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.4614752479206</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C2" t="n">
-        <v>575.4989583075089</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>217.2332597007584</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1331.061315312042</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,40 +4492,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
         <v>53.94298182036445</v>
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1481.84465138245</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>1112.882134442038</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>754.6164358352878</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>754.6164358352878</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>343.6305310456802</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>329.7071269842712</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990284</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V5" t="n">
-        <v>2338.033285077397</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.033285077397</v>
+        <v>1871.983983358262</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>1871.983983358262</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1481.84465138245</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468203</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468203</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468203</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468203</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468203</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>257.1154545468203</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714563</v>
+        <v>257.1154545468203</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.7222632714563</v>
+        <v>257.1154545468203</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1919.063478780785</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.726206188477</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.663318844906</v>
+        <v>2130.940772869852</v>
       </c>
       <c r="W8" t="n">
-        <v>2305.663318844906</v>
+        <v>1778.172117599737</v>
       </c>
       <c r="X8" t="n">
-        <v>2305.663318844906</v>
+        <v>1404.706359338657</v>
       </c>
       <c r="Y8" t="n">
-        <v>2305.663318844906</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="9">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5060,31 +5060,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247853</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383436</v>
       </c>
       <c r="V13" t="n">
-        <v>648.2854922876347</v>
+        <v>420.3226148324568</v>
       </c>
       <c r="W13" t="n">
-        <v>358.8683222506741</v>
+        <v>130.9054447954961</v>
       </c>
       <c r="X13" t="n">
-        <v>358.8683222506741</v>
+        <v>130.9054447954961</v>
       </c>
       <c r="Y13" t="n">
-        <v>358.8683222506741</v>
+        <v>130.9054447954961</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,10 +5294,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5434,22 +5434,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765184</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>545.9992215018333</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M18" t="n">
-        <v>1595.645765494011</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1925.508393158044</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O18" t="n">
-        <v>2205.048458376741</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2410.070939158951</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>420.322614832457</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>420.322614832457</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>420.322614832457</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5835,19 +5835,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1439.9246662551</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1439.9246662551</v>
+        <v>1408.865170834405</v>
       </c>
       <c r="T22" t="n">
-        <v>1439.9246662551</v>
+        <v>1408.865170834405</v>
       </c>
       <c r="U22" t="n">
-        <v>1439.9246662551</v>
+        <v>1119.736532047963</v>
       </c>
       <c r="V22" t="n">
-        <v>1185.240178049213</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="W22" t="n">
-        <v>895.8230080122523</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="X22" t="n">
-        <v>667.833457114235</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.0408779707049</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,31 +6054,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>410.8745301331627</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,25 +6163,25 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1313.886294955175</v>
+        <v>1379.229518531122</v>
       </c>
       <c r="T25" t="n">
-        <v>1090.100879744681</v>
+        <v>1379.229518531122</v>
       </c>
       <c r="U25" t="n">
         <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>835.4163915387938</v>
       </c>
       <c r="W25" t="n">
         <v>545.9992215018333</v>
@@ -6203,10 +6203,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,28 +6215,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,16 +6245,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636247</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>991.0842369787847</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C28" t="n">
-        <v>822.1480540508778</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508778</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684846</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705743</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1393.525280952554</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1393.525280952554</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>1393.525280952554</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V28" t="n">
-        <v>1393.525280952554</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="W28" t="n">
-        <v>1393.525280952554</v>
+        <v>985.713685310448</v>
       </c>
       <c r="X28" t="n">
-        <v>1393.525280952554</v>
+        <v>757.7241344124308</v>
       </c>
       <c r="Y28" t="n">
-        <v>1172.732701809024</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,55 +6458,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>474.8900731662869</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203137</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>620.7342676598897</v>
+        <v>439.5324299542178</v>
       </c>
       <c r="C31" t="n">
-        <v>507.5589500133533</v>
+        <v>439.5324299542178</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2146454274844</v>
+        <v>439.5324299542178</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264619</v>
+        <v>347.3802016531954</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>256.2511194366559</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>143.8366630378474</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>143.8366630378474</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667506</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323873</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818802</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894286</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386958</v>
+        <v>902.680428981893</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220492</v>
+        <v>730.4517433652463</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598897</v>
+        <v>565.4200295030869</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,28 +6935,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2315.73845358094</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7096,13 +7096,13 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7120,10 +7120,10 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025263</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7190,10 +7190,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7239,13 +7239,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,25 +7254,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>488.2756279992589</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>735.040755905723</v>
       </c>
       <c r="M39" t="n">
-        <v>857.5427825698952</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7327,7 +7327,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7351,31 +7351,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7421,16 +7421,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7552,28 +7552,28 @@
         <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7582,13 +7582,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7658,16 +7658,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,37 +7713,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2446.115379232725</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7786,10 +7786,10 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7831,22 +7831,22 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010317</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516231</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>171.2966883299267</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,16 +9015,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>176.7176547498456</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>50.62661940943661</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9483,10 +9483,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9717,19 +9717,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>171.2966883299254</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208072</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>189.002242766246</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>104.8749102765741</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>15.83804904622774</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10902,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>202.5230052237935</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>15.83804904622843</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>349.7653003338561</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,16 +11385,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>80.50021372615166</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800791</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>115.7188962768329</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>14.45548819888973</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>111.7331289636349</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338591</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>78.54216539558264</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>51.56266414401827</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>108.7702212573406</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>14.7411341369035</v>
+        <v>189.3952778808834</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>93.58373027430892</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24661,13 +24661,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>39.56409667619024</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>38.62135484964514</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437427</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.062612973929108</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523582</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666584.7624635147</v>
+        <v>666584.7624635146</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666584.7624635146</v>
+        <v>666584.7624635147</v>
       </c>
     </row>
     <row r="11">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
         <v>723403.7605147617</v>
@@ -26326,34 +26326,34 @@
         <v>723403.7605147612</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="H2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="I2" t="n">
         <v>723403.7605147613</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="K2" t="n">
-        <v>752620.954088749</v>
+        <v>752620.9540887494</v>
       </c>
       <c r="L2" t="n">
-        <v>759463.6371244611</v>
+        <v>759463.6371244619</v>
       </c>
       <c r="M2" t="n">
-        <v>759463.6371244611</v>
+        <v>759463.6371244612</v>
       </c>
       <c r="N2" t="n">
         <v>759463.6371244612</v>
       </c>
       <c r="O2" t="n">
-        <v>759463.6371244611</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="P2" t="n">
-        <v>759463.637124461</v>
+        <v>759463.6371244618</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284561</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086696</v>
+        <v>10342.90680086691</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284556</v>
+        <v>44162.60530284565</v>
       </c>
     </row>
     <row r="4">
@@ -26418,19 +26418,19 @@
         <v>165632.8677865244</v>
       </c>
       <c r="C4" t="n">
-        <v>165632.8677865244</v>
+        <v>165632.8677865245</v>
       </c>
       <c r="D4" t="n">
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687077</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26439,22 +26439,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106724</v>
+        <v>40339.23010106719</v>
       </c>
       <c r="L4" t="n">
+        <v>44593.39482819117</v>
+      </c>
+      <c r="M4" t="n">
         <v>44593.39482819119</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>44593.39482819118</v>
       </c>
-      <c r="N4" t="n">
-        <v>44593.39482819119</v>
-      </c>
       <c r="O4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26488,13 +26488,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78996.18794001589</v>
+        <v>-78996.18794001621</v>
       </c>
       <c r="C6" t="n">
         <v>510971.6912745285</v>
       </c>
       <c r="D6" t="n">
-        <v>510971.6912745285</v>
+        <v>510971.6912745287</v>
       </c>
       <c r="E6" t="n">
-        <v>84081.79050227821</v>
+        <v>83984.3313763062</v>
       </c>
       <c r="F6" t="n">
-        <v>609241.8269791739</v>
+        <v>609144.3678532017</v>
       </c>
       <c r="G6" t="n">
-        <v>609241.8269791738</v>
+        <v>609144.3678532019</v>
       </c>
       <c r="H6" t="n">
-        <v>609241.826979174</v>
+        <v>609144.3678532018</v>
       </c>
       <c r="I6" t="n">
-        <v>609241.826979174</v>
+        <v>609144.3678532019</v>
       </c>
       <c r="J6" t="n">
-        <v>432818.6077865808</v>
+        <v>432721.148660609</v>
       </c>
       <c r="K6" t="n">
-        <v>571490.9101546133</v>
+        <v>571472.4164166794</v>
       </c>
       <c r="L6" t="n">
-        <v>606812.2296753776</v>
+        <v>606812.2296753784</v>
       </c>
       <c r="M6" t="n">
-        <v>482354.1212424075</v>
+        <v>482354.1212424077</v>
       </c>
       <c r="N6" t="n">
         <v>617155.1364762447</v>
       </c>
       <c r="O6" t="n">
-        <v>617155.1364762445</v>
+        <v>617155.1364762456</v>
       </c>
       <c r="P6" t="n">
-        <v>572992.5311733988</v>
+        <v>572992.5311733996</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010837</v>
+        <v>12.92863350108363</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>252.8796012853236</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>240.9332107331782</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>96.01048066168096</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>216.2476847070477</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>50.91626905208949</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>277.9301806718191</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.62049154535643</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>92.89577304195231</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>245.8839141016533</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>158.0700566698772</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>46.76331713866882</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.275197418923936e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,40 +31282,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,31 +33111,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34936,25 +34936,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279169</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>481.7210653803928</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35507,10 +35507,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35735,16 +35735,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>509.9122281478584</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35963,10 +35963,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>299.8843243654609</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35975,13 +35975,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>215.6591577951388</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>448.880785543133</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415665</v>
@@ -36218,7 +36218,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>274.9155166742619</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>453.6603905710336</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523318</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>339.5776813541852</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412249</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043172</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,10 +37163,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>192.8879430616483</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>103.8510818313019</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>353.0984438117327</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>326.2624260966948</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>660.1896773843225</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>168.5132465112258</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
